--- a/Equipe209.xlsx
+++ b/Equipe209.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1148" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296C82F7-5868-4279-9F13-1A1AA38FBA65}"/>
+  <xr:revisionPtr revIDLastSave="1282" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D697BD6-BB8E-40A4-82C4-8FF001BCC757}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
     <sheet name="Assurance Qualité" sheetId="6" r:id="rId2"/>
     <sheet name="Fonctionnalités" sheetId="8" r:id="rId3"/>
+    <sheet name="Documents" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="201">
   <si>
     <t>Fonct.</t>
   </si>
@@ -59,6 +60,9 @@
     <t>Note pondérée</t>
   </si>
   <si>
+    <t>Documents</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -105,6 +109,10 @@
   </si>
   <si>
     <t xml:space="preserve">image-area component contient trop de logiques . Faut minimiser la logique dans les components </t>
+  </si>
+  <si>
+    <t>game.page et creation.page ont beaucoup de responsabilités.
+Aussi, La responsabilité d'envoyer ou d'ecouter les event est considéré comme une communication avec le serveur donc ca devrait etre dans des services type controlleur</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -116,6 +124,10 @@
   <si>
     <t xml:space="preserve">configConstants.ts doit respecter kebab-case format. 
 Groupez svp les services dans des folders comme ce qui est fait avec les components du client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faudrait grouper les services dans des folders comme ce qui est fait avec les components du client. Vous le faites pour certains mais pas pour tous
+sheet-http.service? c'est un service type controlleur donc la nomenclature doit l'indiquer </t>
   </si>
   <si>
     <t>Sous-total</t>
@@ -164,6 +176,9 @@
     <t>Bon travail</t>
   </si>
   <si>
+    <t>Vos classes sont beaucoup trop couplé. Vous devez injecter trop de service dans plusieurs classes.</t>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
@@ -171,6 +186,10 @@
   </si>
   <si>
     <t>Parfois vous initialisez à la définition parfois dans le constructeur. Voir GameLogicService</t>
+  </si>
+  <si>
+    <t>GameLogicService
+AudioService vs le reste</t>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -188,6 +207,10 @@
 enlargeRadius est beaucoup trop complexe</t>
   </si>
   <si>
+    <t>RadiusEnlargementService est trop complexe et devrait être fragmenté en plusieurs fonction
+compareImage</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -213,6 +236,9 @@
     <t>Vous avez des return await redondant</t>
   </si>
   <si>
+    <t>return await redontant</t>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -232,6 +258,11 @@
 Plusieurs chhiffres magiques ne sont pas mises dans des consts. Mettez les dans des const svp ca c'est tres important </t>
   </si>
   <si>
+    <t xml:space="preserve">client/constants.ts devraient pas etre dans le root folder. Faudrait le mettre dans un folder constants/ Idem pour le serveur
+Faudrait aussi les grouper seulement le context d'utilisation
+</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -242,6 +273,9 @@
   </si>
   <si>
     <t>La constante est utilisé dans un contexte lié à la logique d'affaire. (Exemple d'erreur: const DEUX = 2,  bonne utilisation: WAIT_TIME = 5000 )</t>
+  </si>
+  <si>
+    <t>Certaines constantes du client ont des nommés qui décrivent pas le context d'utilisation</t>
   </si>
   <si>
     <t>6. Expressions booléennes</t>
@@ -272,6 +306,9 @@
 L'expression booléenne utilise un ou des prédicats pour simplifier une condition complexe.</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -285,9 +322,6 @@
 La langue utilisée pour les commentaires doit être uniforme, mais peut être différente que la langue du code source.</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>7.2 Commentaire</t>
   </si>
   <si>
@@ -297,12 +331,18 @@
     <t>Non</t>
   </si>
   <si>
+    <t>Dans CanvasHelperService</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
     <t>Le code utilise des enum lorsque c'est pertinent.</t>
   </si>
   <si>
+    <t>Pas de folder pour les enums</t>
+  </si>
+  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
@@ -312,10 +352,16 @@
     <t>any</t>
   </si>
   <si>
+    <t>any est utilisé.</t>
+  </si>
+  <si>
     <t>7.5 Duplication</t>
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>MainPageComponent HTML</t>
   </si>
   <si>
     <t>7.6 ESLint</t>
@@ -328,6 +374,10 @@
     <t>no-explicit-any,  no-console, no-empty-function, no-non-null-assertion ...</t>
   </si>
   <si>
+    <t xml:space="preserve">eslint-disable-next-line @typescript-eslint/no-explicit-any
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -335,6 +385,10 @@
   </si>
   <si>
     <t xml:space="preserve">Pas de séparation en folders et très haute compléxité des fonctions. Un grand refactor est nécessaire pour le sprint prochain. </t>
+  </si>
+  <si>
+    <t>Components trop complexe: CreationPageComponent
+cheatBlink</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -479,24 +533,50 @@
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
   </si>
   <si>
+    <t>Le stack de votre undo-redo n'est pas vider
+L'inversion ne fonctionne pas bien avec l'undo redo
+Shift ne fonctionne pas bien rectangle
+Votre controller et votre difference detector manque de coverage du côté serveur.</t>
+  </si>
+  <si>
     <t>2.2 Créer et Joindre une partie un contre un</t>
   </si>
   <si>
+    <t>Bug avec le join apres annulation . OK pour le reste</t>
+  </si>
+  <si>
     <t>2.3 Mode Classique en un contre un</t>
   </si>
   <si>
+    <t>Bon travail. Attention aux tests</t>
+  </si>
+  <si>
     <t>2.4 Vue de jeu en un contre un et Section des messages</t>
   </si>
   <si>
+    <t>Good job</t>
+  </si>
+  <si>
     <t>2.5 Vue de Configuration - suppression de jeu</t>
   </si>
   <si>
+    <t xml:space="preserve">Il n'y a pas de gestion des parties en cours supprimés </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
   </si>
   <si>
+    <t>Manque l'heure dans l'afficahge. OK pour le reste
+Manque de coverage server side pour les tests</t>
+  </si>
+  <si>
     <t>2.7 Mode Triche</t>
   </si>
   <si>
+    <t>Bon travail
+Bon test</t>
+  </si>
+  <si>
     <t>Erreur de build  / déploiement erroné</t>
   </si>
   <si>
@@ -528,13 +608,147 @@
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Document d'Architecture</t>
+  </si>
+  <si>
+    <t>Protocole de communication</t>
+  </si>
+  <si>
+    <t>Historique des révisions</t>
+  </si>
+  <si>
+    <t>1 Introduction /1</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>1 Introduction (commentaires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présenter votre application, qu'est-ce qu'elle fait et quelles sont les parties qui communiquent ensemble. Ne mentionner pas Angular ni Javascript. </t>
+  </si>
+  <si>
+    <t>2 Vue des cas d'utilisation /5</t>
+  </si>
+  <si>
+    <t>2 Communication client-serveur /7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notation UML à revoir : il vous manque la délimitation du système dans toutes les diagrammes, la notation pour le Server/DB n'est pas la bonne et il manque un acteur tout court dans la majorité des diagramme.
+Vous ne semblez pas comprendre le concept de Cas d'Utilisation : ce sont des actions haut niveau, ex : Utiliser des Indices et non des détails d'implémentation comme les pages 7 et 8.
+Page 6 : pourquoi le CU 4.0 est lié à CU 6.0 s'il n'y a aucun lien logique entre les 2 ?
+Page 6, temps limité : ceci est presqu'un diagramme de séquences qu'un diagramme de CU. À refaire puisqu'on ne comprend pas le fonctionnement du temps limité.
+Page 7, CU-1.0 : ceci s'applique à mode classique seulement et non le temps limité.
+Page 7, CU-2.0 : ce ne sont pas des cas d'utilisations, mais plutôt des détails d'implémentation. Mauvaise nomenclature de vos CU : ils devraient commencer par un verbe. Trop de relations "include" qui devraient être des "extend". Diagramme à refaire ou retirer complétement.
+Page 8, CU-3.0 : mêmes commentaire que CU-2.0. Nous avons le sentiment de lire un diagramme de séquence.
+Page 8, CU-4.0 : mêmes commentaires que CU-3.0 et CU-2.0. La relation entre les CUs 4.X et 4.0 devrait être un "extends" ou une généralisation.
+Page 9, diagramme général : la numération des CUs devrait être séquentielle, 3.0 avant 4.0
+Page 9, CU-1.0 : ce sont des détails d'implémentation. Ce diagramme est à retirer.
+Pages 10 , CU-2.0  à CU-4.0: mêmes commentaires que CU-1.0. Tous ces diagrammes sont à retirer.
+Page 11 : les 3 diagrammes devraient être un seul. Retirer CU-1.4, CU-1.5 et CU-1.5.1 du 2e diagrammes. Le diagramme de CU-2.0 au complet est à retirer.
+Pages 12 et 13 : les 4 diagrammes devraient etre un seul. Le diagramme de CU-2.0 est invaldie : il n'y a pas de configuration des indices. Les diagrammes de CU-3.1 et CU-4.0  sont des détails d'implémentation à retirer.
+Page 14 et 15: mêmes commentaires que plus haut.
+Page 16 et 17: mêmes commentaires que plus haut.
+Page 17 et 18 : mêmes commentaires que plus haut. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Soyez concis, vous avez pas à justifier vos décisions en équipe. 
+- C'est faux de mentionner les librairies Angular et SocketIO. Les protocoles de communications HTTP et WebSocket sont indépendant de la librairie utilisé.
+- Absence d'une justification correcte de l'utilisation de HTTP et WebSocket.
+- Section incomplète, à refaire. 
+- Absence d'une association de chaque fonctionnalité au bon protocole de communication. 
+- 
+</t>
+  </si>
+  <si>
+    <t>3 Vue des processus /6</t>
+  </si>
+  <si>
+    <t>3 Description des paquets /12</t>
+  </si>
+  <si>
+    <t>Section incomplète : vous avez 1 seul diagramme et il est erroné : Il n'y a pas de reprise vidéo pour le temps limité. Si le message "update Sheets" veut dire la mise à jour des meilleurs temps, ceci est erroné puisqu'Il n'y a pas de meilleurs temps en mode temps limité
+Vous devez séparer la présentation en plusieurs diagrammes : selon ce diagramme, il faut configurer les constantes de jeu avant chaque partie solo (mais pas coop??), le mode solo se termine après avoir utilisé 1 indice en solo ou après avoir trouvé une différence en coop, et après la fin de la partie, il faut obligatoirement supprimer toutes les fiches.
+La séquence de jeu est mal représentée : il manque un [loop] pour représenter que la partie peut passer à travers plusieurs images et il manque une représentation de la gestion d'abandon et la poursuite en mode solo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP: 
+- C'est très bien que vous avez associé une requête à un cas d'utilisation. 
+- Bonne description de chaque requête et évenement socket, mais elle peut être beaucoup plus concise. 
+- Vous devez ajouter les code de retour de chaque requête HTTP
+- Il faut inclure le bodyde la réponse pour chaque requête si c'est applicable.
+- Attention au copiage du texte qui provient des documents pédagogique! Essayer de formuler à votre façon. 
+- Il faut montrer les interfaces utilisées dans le body des requêtes. 
+WebSocket:
+- Un component ne devrait pas être la source ni la destionation d'un évenement socket 
+- Il faut mettre les BODY d'un event dans des interfaces.
+- Soyer concis dans la description de l'utilité de vos events
+- Vous devez avoir des noms d'évenements en camelCase seulement.
+</t>
+  </si>
+  <si>
+    <t>4 Vue logique /6</t>
+  </si>
+  <si>
+    <t>Mauvaise notation UML. Le titre de chaque paqutage doit être dans le rectangle en haut à gauche.
+Page 22 : évitez des paquetages/classes flottantes : présentez les liens entre vos interfaces et les services spécifques.
+Page 23 : très bien pour la partie logique, mais vous ne présentez pas les différentes classes (Components) en lien avec ce paquetage. Ex : le contenu du paquetage "Chat box" de la page 22.
+Page 24 : description du paquetage incomplet : il communique avec quoi ?
+Page 25 : mêmes commentaires que page 22. Que veut dire le paquetage "events" ?
+Page 26 : mêmes commentaires que page 23.
+Page 27 : pourquoi utiliser le terme "module" et non "paquetage" dans la description ? La présentation dans le diagramme est différente que les pages 22 et 25. Il manque la boîte du paquetage "GameSelection" au plus haut niveau.
+Page 28  : mêmes commentaires que page 23.
+Page 29 : la description est la même que la page 21 (GamePlay) et présente le paquetage du client. Dans le diagramme, vous avez "Client requests" qui ne devrait logiquement pas faire partie du paquetage serveur.
+Page 30 : le diagramme ne correspond pas au diagramme de paquetages de la page 29 : manque "DifferenceService" et vous avez "Gateway" (page 29) et "ChatGateway" (page 30) : est-ce la même chose ?
+Page 31 : la description est la même que la page 24 (GameConfiguration) et présente le paquetage du client. mêmes commentaires que page 29.
+Page 32 : mêmes commentaires que page 30 : FileUploadingServices n'est pas présent ici, mais présenté à la page 31.
+Page 33 :  la description est la même que la page 27 (GameSelection) et présente le paquetage du client. 
+Page 34 : mêmes commentaires que la page 29.
+Page 35 : mêmes commentaires que la page 30. ChatGateway de cette page n'est pas présent à la page 34.</t>
+  </si>
+  <si>
+    <t>5 Vue de déploiement /2</t>
+  </si>
+  <si>
+    <t>Le serveur statique et le client (machine de l'utilisateur ) sont 2 concepts différents et devraient être séparés.
+Les fichiers statiques ne sont pas un environnement d'exécution, mais un artéfact.
+Gitlab Pages n'a pas NodeJS ou Nginx pour servir le contenu statique : Pages utilise leur propre serveur http (https://gitlab.com/gitlab-org/gitlab-pages)
+Que veut dire NEST API ? Est-ce votre serveur ? 
+Amazon Linux est un système d'exploitation et non un environnement d'exécution.  Même commentaire pour MongoDB Linux.
+NodeJS devrait être une boîte englobante autour de votre NEST API.
+Mongoose est une librairie et non un protocole de communication : la communication avec MongoDB se fait par TCP ou plus spécifiquement MongoDB Wire Protocol</t>
+  </si>
+  <si>
+    <t>Forme /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notation UML à revoir dans les 4 sections.
+Plusieurs problèmes de mise en page avec des titres sur des pages différentes que le contenu. Ex : pages 5 et 6, 9 et 10.
+Section 4 : pas de numération ou de titres pour les diagrammes. Les diagrammes de paquetages et leurs diagrammes de classes ne sont pas cohérents dans la majorité des cas. </t>
+  </si>
+  <si>
+    <t>- Attention aux fautes d'écritures!
+- La table de matiére devrait seulement contenir les titres. Les cas d'utilisatiions doivent être numérotées. 
+- Enlever le paragraphe dupliquer dans le rapport.</t>
+  </si>
+  <si>
+    <t>FOND</t>
+  </si>
+  <si>
+    <t>FORME</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,8 +872,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,8 +1044,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1471,6 +1736,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1481,7 +1837,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2103,9 +2459,6 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2118,6 +2471,66 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="28" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2273,6 +2686,9 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2663,10 +3079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FA667-0374-4556-B71F-558CE1E91347}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2679,7 +3095,7 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30.75">
       <c r="A3" s="40"/>
       <c r="B3" s="126" t="s">
         <v>0</v>
@@ -2699,10 +3115,13 @@
       <c r="G3" s="129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="108">
         <f>(Fonctionnalités!E15)</f>
@@ -2724,22 +3143,23 @@
         <f>D4*F4</f>
         <v>9.8940000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0</v>
+        <v>0.77625</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.71200000000000008</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.75055000000000005</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2747,12 +3167,16 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15.011000000000001</v>
+      </c>
+      <c r="H5" s="116">
+        <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
+        <v>3.046875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
@@ -2774,10 +3198,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="121">
+        <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
@@ -2792,6 +3220,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H7" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2803,8 +3232,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2823,36 +3252,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
+      <c r="A2" s="239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="221" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
+      <c r="A4" s="240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2872,62 +3301,62 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="238" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="225" t="s">
+      <c r="A6" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="240" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242" t="s">
+      <c r="B6" s="244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="243"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="222" t="s">
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="223"/>
-      <c r="K6" s="224"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="242"/>
+      <c r="K6" s="243"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="256"/>
+      <c r="P6" s="256"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="239"/>
-      <c r="B7" s="226"/>
+      <c r="A7" s="258"/>
+      <c r="B7" s="245"/>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2937,26 +3366,26 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="235" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="228" t="s">
+      <c r="A8" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="229"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="248"/>
       <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="229"/>
+      <c r="G8" s="248"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="229"/>
+      <c r="I8" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="248"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2965,12 +3394,12 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="76.5">
+    <row r="9" spans="1:17" ht="229.5">
       <c r="A9" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="100">
         <v>0.8</v>
@@ -2979,13 +3408,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="102"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0.75</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="103" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105">
         <v>6</v>
@@ -2998,12 +3431,12 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="137.25">
+    <row r="10" spans="1:17" ht="213">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="100">
         <v>0.8</v>
@@ -3012,13 +3445,17 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="102"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="102">
+        <v>0.7</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="103" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="104"/>
       <c r="J10" s="105">
         <v>2</v>
@@ -3032,10 +3469,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="231"/>
+      <c r="A11" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="250"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>6.4</v>
@@ -3047,7 +3484,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3071,26 +3508,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="235" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="229"/>
+      <c r="A12" s="254" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="254"/>
+      <c r="C12" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="248"/>
       <c r="E12" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="229"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="229"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="248"/>
+      <c r="H12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="248"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3101,10 +3540,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3113,14 +3552,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="89"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93">
         <f>G13</f>
@@ -3132,10 +3575,10 @@
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3144,14 +3587,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="76"/>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
@@ -3163,10 +3610,10 @@
     </row>
     <row r="15" spans="1:17" ht="60.75">
       <c r="A15" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3175,14 +3622,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>38</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
@@ -3192,12 +3643,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75">
+    <row r="16" spans="1:17" ht="76.5">
       <c r="A16" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3206,14 +3657,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
@@ -3225,10 +3680,10 @@
     </row>
     <row r="17" spans="1:17" ht="60.75">
       <c r="A17" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" s="83">
         <v>0.8</v>
@@ -3237,14 +3692,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0.6</v>
+      </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
@@ -3255,10 +3714,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="231"/>
+      <c r="A18" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="250"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>12.2</v>
@@ -3270,7 +3729,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3294,36 +3753,36 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="227" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="229"/>
+      <c r="A19" s="246" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="246"/>
+      <c r="C19" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="248"/>
       <c r="E19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="229"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="248"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="229"/>
+      <c r="I19" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="248"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="76.5">
+    <row r="20" spans="1:17" ht="91.5">
       <c r="A20" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C20" s="83">
         <v>0.6</v>
@@ -3332,13 +3791,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="88" t="s">
+        <v>51</v>
+      </c>
       <c r="I20" s="76"/>
       <c r="J20" s="77">
         <v>3</v>
@@ -3349,10 +3812,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3361,13 +3824,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I21" s="76"/>
       <c r="J21" s="77">
         <v>3</v>
@@ -3377,10 +3844,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="232" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="233"/>
+      <c r="A22" s="251" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="252"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>4.8</v>
@@ -3392,7 +3859,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3413,35 +3880,35 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="213" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B23" s="213"/>
-      <c r="C23" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="229"/>
+      <c r="C23" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="248"/>
       <c r="E23" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="229"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="248"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="229"/>
+      <c r="I23" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="248"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3450,13 +3917,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="82"/>
+        <v>41</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="I24" s="73"/>
       <c r="J24" s="74">
         <v>1</v>
@@ -3467,10 +3938,10 @@
     </row>
     <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C25" s="83">
         <v>0.6</v>
@@ -3479,13 +3950,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="86"/>
+        <v>59</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0.6</v>
+      </c>
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="88" t="s">
+        <v>60</v>
+      </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77">
         <v>2</v>
@@ -3496,10 +3971,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3508,13 +3983,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="88" t="s">
+        <v>41</v>
+      </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77">
         <v>1</v>
@@ -3524,10 +4003,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="233"/>
+      <c r="A27" s="253" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="252"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3.2</v>
@@ -3539,7 +4018,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3559,36 +4038,36 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="227" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="227"/>
-      <c r="C28" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="229"/>
+      <c r="A28" s="246" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="246"/>
+      <c r="C28" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="248"/>
       <c r="E28" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="229"/>
+      <c r="G28" s="248"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="229"/>
+      <c r="I28" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="248"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="152.25">
+    <row r="29" spans="1:17" ht="198">
       <c r="A29" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C29" s="79">
         <v>0.5</v>
@@ -3597,14 +4076,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>66</v>
+      </c>
+      <c r="F29" s="89">
+        <v>0.6</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="95" t="s">
+        <v>67</v>
+      </c>
       <c r="I29" s="92"/>
       <c r="J29" s="93">
         <f>D29</f>
@@ -3616,10 +4099,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3628,7 +4111,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
@@ -3643,12 +4128,12 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="30.75">
+    <row r="31" spans="1:17" ht="76.5">
       <c r="A31" s="24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3657,12 +4142,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="F31" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H31" s="96"/>
+      <c r="H31" s="96" t="s">
+        <v>72</v>
+      </c>
       <c r="I31" s="76"/>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
@@ -3673,10 +4162,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="231"/>
+      <c r="A32" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="250"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>5</v>
@@ -3688,7 +4177,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3708,22 +4197,22 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="235" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="235"/>
-      <c r="C33" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="229"/>
+      <c r="A33" s="254" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="254"/>
+      <c r="C33" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="248"/>
       <c r="E33" s="46"/>
-      <c r="F33" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="229"/>
+      <c r="F33" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="248"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="46"/>
@@ -3732,10 +4221,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -3744,7 +4233,9 @@
         <v>2</v>
       </c>
       <c r="E34" s="81"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
@@ -3759,10 +4250,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3771,7 +4262,9 @@
         <v>2</v>
       </c>
       <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="F35" s="89">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
@@ -3786,10 +4279,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3798,7 +4291,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="89">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
@@ -3813,10 +4308,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -3825,7 +4320,9 @@
         <v>3</v>
       </c>
       <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="F37" s="89">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
@@ -3838,11 +4335,11 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="231"/>
+    <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A38" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="250"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>10</v>
@@ -3854,13 +4351,15 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
         <v>10</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="52" t="s">
+        <v>82</v>
+      </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
         <v>0</v>
@@ -3875,35 +4374,37 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="229"/>
+      <c r="C39" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="248"/>
       <c r="E39" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="229"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="229"/>
+        <v>84</v>
+      </c>
+      <c r="F39" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="248"/>
+      <c r="H39" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="248"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -3912,14 +4413,18 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F40" s="86">
+        <v>1</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I40" s="76"/>
       <c r="J40" s="77">
         <f>D40</f>
@@ -3929,12 +4434,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="30.75">
       <c r="A41" s="23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C41" s="83">
         <v>0</v>
@@ -3943,14 +4448,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F41" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="88" t="s">
+        <v>90</v>
+      </c>
       <c r="I41" s="76"/>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -3960,12 +4469,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="30.75">
       <c r="A42" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -3974,14 +4483,18 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F42" s="86">
+        <v>0</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>93</v>
+      </c>
       <c r="I42" s="76"/>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
@@ -3992,10 +4505,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C43" s="83">
         <v>0</v>
@@ -4004,14 +4517,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>96</v>
+      </c>
+      <c r="F43" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>97</v>
+      </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
@@ -4021,12 +4538,12 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="30.75">
       <c r="A44" s="23" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4035,14 +4552,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F44" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="88" t="s">
+        <v>100</v>
+      </c>
       <c r="I44" s="76"/>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
@@ -4052,12 +4573,12 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="60.75">
+    <row r="45" spans="1:13" ht="76.5">
       <c r="A45" s="23" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C45" s="83">
         <v>0.75</v>
@@ -4066,14 +4587,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>103</v>
+      </c>
+      <c r="F45" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="88" t="s">
+        <v>104</v>
+      </c>
       <c r="I45" s="76"/>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
@@ -4085,10 +4610,10 @@
     </row>
     <row r="46" spans="1:13" ht="106.5">
       <c r="A46" s="23" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C46" s="83">
         <v>0</v>
@@ -4097,14 +4622,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>107</v>
+      </c>
+      <c r="F46" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="88" t="s">
+        <v>108</v>
+      </c>
       <c r="I46" s="76"/>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
@@ -4116,10 +4645,10 @@
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C47" s="83">
         <v>0.4</v>
@@ -4128,14 +4657,18 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="86"/>
+        <v>111</v>
+      </c>
+      <c r="F47" s="86">
+        <v>1</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -4147,10 +4680,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C48" s="83">
         <v>0</v>
@@ -4159,14 +4692,18 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>114</v>
+      </c>
+      <c r="F48" s="86">
+        <v>1</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H48" s="88"/>
+      <c r="H48" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I48" s="76"/>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
@@ -4177,10 +4714,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="231"/>
+      <c r="A49" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="250"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>16.399999999999999</v>
@@ -4192,7 +4729,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4216,36 +4753,38 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="235" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="235"/>
-      <c r="C50" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="229"/>
+      <c r="A50" s="254" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="254"/>
+      <c r="C50" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="248"/>
       <c r="E50" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="229"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="228" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="229"/>
+        <v>84</v>
+      </c>
+      <c r="F50" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="248"/>
+      <c r="H50" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="248"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4254,13 +4793,17 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="82"/>
+        <v>33</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="I51" s="73"/>
       <c r="J51" s="74">
         <v>2</v>
@@ -4271,10 +4814,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4283,13 +4826,17 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="88"/>
+      <c r="H52" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I52" s="76"/>
       <c r="J52" s="77">
         <v>2</v>
@@ -4300,10 +4847,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4312,13 +4859,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" s="86"/>
+        <v>122</v>
+      </c>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I53" s="76"/>
       <c r="J53" s="77">
         <v>1</v>
@@ -4329,10 +4880,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C54" s="83">
         <v>0</v>
@@ -4341,13 +4892,17 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="86"/>
+        <v>122</v>
+      </c>
+      <c r="F54" s="86">
+        <v>1</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I54" s="76"/>
       <c r="J54" s="77">
         <v>4</v>
@@ -4358,10 +4913,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C55" s="83">
         <v>0.5</v>
@@ -4370,13 +4925,17 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I55" s="76"/>
       <c r="J55" s="77">
         <v>2</v>
@@ -4386,10 +4945,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="230" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="231"/>
+      <c r="A56" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="250"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>5</v>
@@ -4401,7 +4960,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4421,27 +4980,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="258" t="s">
+      <c r="A57" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="259"/>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="259"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="260"/>
+      <c r="B57" s="278"/>
+      <c r="C57" s="278"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="278"/>
+      <c r="F57" s="278"/>
+      <c r="G57" s="278"/>
+      <c r="H57" s="278"/>
+      <c r="I57" s="278"/>
+      <c r="J57" s="278"/>
+      <c r="K57" s="279"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="245" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="246"/>
+      <c r="A58" s="264" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="265"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>63</v>
@@ -4453,7 +5012,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4473,28 +5032,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="247" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="248"/>
-      <c r="C59" s="249">
+      <c r="A59" s="266" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="267"/>
+      <c r="C59" s="268">
         <f>C58/D58</f>
         <v>0.63</v>
       </c>
-      <c r="D59" s="250"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="252">
+      <c r="D59" s="269"/>
+      <c r="E59" s="270"/>
+      <c r="F59" s="271">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="253"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="255">
+        <v>0.71200000000000008</v>
+      </c>
+      <c r="G59" s="272"/>
+      <c r="H59" s="273"/>
+      <c r="I59" s="274">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="256"/>
-      <c r="K59" s="257"/>
+      <c r="J59" s="275"/>
+      <c r="K59" s="276"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -4553,7 +5112,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4572,8 +5131,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4588,15 +5147,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="261" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
+      <c r="A2" s="280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4609,7 +5168,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4620,42 +5179,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="265" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="266"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
-      <c r="G6" s="267"/>
+      <c r="A6" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4671,15 +5230,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B9" s="137">
         <v>0.9</v>
@@ -4695,15 +5254,15 @@
         <v>10.8</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4719,15 +5278,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B11" s="137">
         <v>0.5</v>
@@ -4743,15 +5302,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B12" s="134">
         <v>0.6</v>
@@ -4767,15 +5326,15 @@
         <v>9</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="76.5">
       <c r="A13" s="133" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B13" s="134">
         <v>0.7</v>
@@ -4791,15 +5350,15 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="219" t="s">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="218" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="121.5">
       <c r="A14" s="136" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B14" s="137">
         <v>0.5</v>
@@ -4815,18 +5374,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="218" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="G14" s="217" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="268"/>
-      <c r="C15" s="268"/>
+        <v>146</v>
+      </c>
+      <c r="B15" s="287"/>
+      <c r="C15" s="287"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -4840,26 +5399,26 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -4877,7 +5436,7 @@
     </row>
     <row r="18" spans="1:7" ht="30.75">
       <c r="A18" s="151" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B18" s="152">
         <v>0.25</v>
@@ -4891,187 +5450,211 @@
         <v>-3.75</v>
       </c>
       <c r="F18" s="152"/>
-      <c r="G18" s="217" t="s">
-        <v>135</v>
+      <c r="G18" s="216" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="269" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="271"/>
+      <c r="A19" s="288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="289"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="290"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="154" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B20" s="155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="155" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D20" s="155" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="155" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F20" s="155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="156" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="76.5">
       <c r="A21" s="157" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B21" s="158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C21" s="158">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D21" s="158">
         <v>26</v>
       </c>
       <c r="E21" s="158">
         <f>B21*C21*D21</f>
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="F21" s="158"/>
-      <c r="G21" s="159"/>
+      <c r="G21" s="219" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="160" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B22" s="161">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C22" s="161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="161">
         <v>14</v>
       </c>
       <c r="E22" s="161">
         <f t="shared" ref="E22:E28" si="1">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="162"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="F22" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="162" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="157" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B23" s="158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D23" s="158">
         <v>26</v>
       </c>
       <c r="E23" s="158">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
+        <v>19.5</v>
+      </c>
+      <c r="F23" s="158" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="159" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="160" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B24" s="161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="161">
         <v>12</v>
       </c>
       <c r="E24" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="161"/>
-      <c r="G24" s="162"/>
+        <v>12</v>
+      </c>
+      <c r="F24" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="162" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="157" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B25" s="158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C25" s="158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="158">
         <v>8</v>
       </c>
       <c r="E25" s="158">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="158"/>
-      <c r="G25" s="159"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F25" s="158" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30.75">
       <c r="A26" s="160" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B26" s="161">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C26" s="161">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D26" s="161">
         <v>6</v>
       </c>
       <c r="E26" s="161">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="162"/>
-    </row>
-    <row r="27" spans="1:7">
+        <f>B26*C26*D26</f>
+        <v>3.375</v>
+      </c>
+      <c r="F26" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="238" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30.75">
       <c r="A27" s="214" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B27" s="214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="214">
         <v>8</v>
       </c>
       <c r="E27" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="214"/>
-      <c r="G27" s="215"/>
+      <c r="G27" s="214" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="163" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B28" s="164"/>
       <c r="C28" s="164"/>
@@ -5080,34 +5663,34 @@
         <v>100</v>
       </c>
       <c r="E28" s="165">
-        <f>(SUM(E21:E26) + E30+E31+E32)/D28</f>
-        <v>0</v>
+        <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
+        <v>0.77625</v>
       </c>
       <c r="F28" s="165"/>
       <c r="G28" s="166"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="167" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B29" s="168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="168"/>
       <c r="D29" s="168" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="169" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F29" s="169"/>
       <c r="G29" s="170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="171" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B30" s="172">
         <v>0</v>
@@ -5125,7 +5708,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="175" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B31" s="176">
         <v>0</v>
@@ -5143,7 +5726,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="179" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B32" s="180">
         <v>0</v>
@@ -5160,42 +5743,42 @@
       <c r="G32" s="182"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="262" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="263"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="264"/>
+      <c r="A33" s="281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="282"/>
+      <c r="C33" s="282"/>
+      <c r="D33" s="282"/>
+      <c r="E33" s="282"/>
+      <c r="F33" s="282"/>
+      <c r="G33" s="283"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="183" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B34" s="184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="184" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D34" s="184" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="184" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F34" s="184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="186" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B35" s="187">
         <v>0</v>
@@ -5215,7 +5798,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="189" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B36" s="190">
         <v>0</v>
@@ -5235,7 +5818,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="186" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B37" s="187">
         <v>0</v>
@@ -5255,7 +5838,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="189" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B38" s="190">
         <v>0</v>
@@ -5275,7 +5858,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="186" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B39" s="187">
         <v>0</v>
@@ -5295,7 +5878,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="189" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B40" s="190">
         <v>0</v>
@@ -5315,7 +5898,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="186" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B41" s="187">
         <v>0</v>
@@ -5334,28 +5917,28 @@
       <c r="G41" s="188"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="216" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="216">
-        <v>0</v>
-      </c>
-      <c r="C42" s="216">
-        <v>0</v>
-      </c>
-      <c r="D42" s="216">
+      <c r="A42" s="215" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="215">
+        <v>0</v>
+      </c>
+      <c r="C42" s="215">
+        <v>0</v>
+      </c>
+      <c r="D42" s="215">
         <v>20</v>
       </c>
       <c r="E42" s="187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="192" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B43" s="193"/>
       <c r="C43" s="193"/>
@@ -5364,7 +5947,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="194">
-        <f>(SUM(E35:E41) +E45+E46+E47)/D43</f>
+        <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
         <v>0</v>
       </c>
       <c r="F43" s="194"/>
@@ -5372,26 +5955,26 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="196" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B44" s="197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="197"/>
       <c r="D44" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="198" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F44" s="198"/>
       <c r="G44" s="199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="200" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B45" s="201">
         <v>0</v>
@@ -5409,7 +5992,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="204" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B46" s="205">
         <v>0</v>
@@ -5427,7 +6010,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="208" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B47" s="209">
         <v>0</v>
@@ -5469,13 +6052,276 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96390A7-15EB-4DD9-8ABE-151660FB9A15}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="291" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="291"/>
+      <c r="E1" s="291" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="291"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B2" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="222"/>
+      <c r="E3" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="222"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="223" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="224">
+        <v>1</v>
+      </c>
+      <c r="C4" s="224"/>
+      <c r="E4" s="223" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="224">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="224"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="221"/>
+      <c r="B5" s="225" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="221" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="225" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="223" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="224">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="224"/>
+      <c r="E6" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="224">
+        <v>4</v>
+      </c>
+      <c r="G6" s="224"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="221"/>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="223" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="224">
+        <v>2</v>
+      </c>
+      <c r="C8" s="224"/>
+      <c r="E8" s="223" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="224">
+        <v>8</v>
+      </c>
+      <c r="G8" s="224"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="221"/>
+      <c r="B9" s="226" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="227"/>
+      <c r="F9" s="226" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="223" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="224">
+        <v>4</v>
+      </c>
+      <c r="C10" s="224"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="221"/>
+      <c r="B11" s="228" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="223" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="224">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="224"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="227"/>
+      <c r="B13" s="235" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="229" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="236">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="224"/>
+      <c r="E14" s="229" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="230">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="224"/>
+    </row>
+    <row r="15" spans="1:7" ht="64.5">
+      <c r="A15" s="221"/>
+      <c r="B15" s="237" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="221"/>
+      <c r="F15" s="226" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="231" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="232">
+        <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="232">
+        <f>SUM(C4,C6,C8,C10,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="231" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="232">
+        <f>SUM(F4,F6,F8)</f>
+        <v>12.75</v>
+      </c>
+      <c r="G16" s="232">
+        <f>SUM(G4,G6,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="231" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="232">
+        <f t="shared" ref="B17" si="1">B14</f>
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="232">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="231" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="232">
+        <f>F14</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="232">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="233" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="234">
+        <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="C18" s="234">
+        <f>C16/20*0.9+C17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="233" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="234">
+        <f>F16/20*0.9+F17*0.1</f>
+        <v>0.64874999999999994</v>
+      </c>
+      <c r="G18" s="234">
+        <f>G16/20*0.9+G17*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5484,7 +6330,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5616,14 +6462,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
--- a/Equipe209.xlsx
+++ b/Equipe209.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1282" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D697BD6-BB8E-40A4-82C4-8FF001BCC757}"/>
+  <xr:revisionPtr revIDLastSave="1532" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3419D2-8B0B-444D-A97D-14A7C55CAFB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="234">
   <si>
     <t>Fonct.</t>
   </si>
@@ -115,6 +115,11 @@
 Aussi, La responsabilité d'envoyer ou d'ecouter les event est considéré comme une communication avec le serveur donc ca devrait etre dans des services type controlleur</t>
   </si>
   <si>
+    <t xml:space="preserve">plusiers de vos components ont trop de responsabilités (gamepage, creationpage...)
+Dans limited time page vous donner la responsabilité de communiquer avec le serveur à la page, faudrait le faire dans un controller 
+Bon travail pour le reste </t>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -130,6 +135,10 @@
 sheet-http.service? c'est un service type controlleur donc la nomenclature doit l'indiquer </t>
   </si>
   <si>
+    <t xml:space="preserve">services doivent être tous dans ddes folders 
+OK pour le reste </t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>ChatGateway beaucoup trop de responsabilité</t>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -156,6 +168,9 @@
 La classe ne comporte pas d'attribut utilisé seulement dans les tests.</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>2.3 Accessibilité</t>
   </si>
   <si>
@@ -190,6 +205,11 @@
   <si>
     <t>GameLogicService
 AudioService vs le reste</t>
+  </si>
+  <si>
+    <t>GameLogicService
+AudioService vs le reste
+HintsService</t>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -211,6 +231,10 @@
 compareImage</t>
   </si>
   <si>
+    <t>setNeighborValues trop complexe
+radiusEnlargement trop complexe</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -225,6 +249,9 @@
   </si>
   <si>
     <t>La console ne génère pas de message d'avertissement (warning) ou d'erreur (error) qui aurait pu être gérés par le programme.</t>
+  </si>
+  <si>
+    <t>Bon travail!</t>
   </si>
   <si>
     <t>4.2 Code asynchrone</t>
@@ -263,6 +290,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">constants devraient dans un folder et non dans le root </t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -276,6 +306,9 @@
   </si>
   <si>
     <t>Certaines constantes du client ont des nommés qui décrivent pas le context d'utilisation</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>6. Expressions booléennes</t>
@@ -306,9 +339,6 @@
 L'expression booléenne utilise un ou des prédicats pour simplifier une condition complexe.</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -355,6 +385,9 @@
     <t>any est utilisé.</t>
   </si>
   <si>
+    <t>any est utilisé pour les events.</t>
+  </si>
+  <si>
     <t>7.5 Duplication</t>
   </si>
   <si>
@@ -378,6 +411,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">eslint-disable @typescript-eslint/no-explicit-any 
+eslint-disable-next-line @typescript-eslint/no-require-imports, @typescript-eslint/no-var-requires
+ eslint-disable-next-line @typescript-eslint/no-magic-numbers
+...
+ eslint-disable-next-line @typescript-eslint/no-non-null-assertion
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -387,8 +428,10 @@
     <t xml:space="preserve">Pas de séparation en folders et très haute compléxité des fonctions. Un grand refactor est nécessaire pour le sprint prochain. </t>
   </si>
   <si>
-    <t>Components trop complexe: CreationPageComponent
-cheatBlink</t>
+    <t>cheatBlink</t>
+  </si>
+  <si>
+    <t>replayEvents, switch, handleDisconnect, handleClick, cheatBlink</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -402,6 +445,9 @@
     <t>Fonction: makeBlink; Variable: file0, file1; Constants: exJeux, games</t>
   </si>
   <si>
+    <t xml:space="preserve">Vos messages d'erreurs doivent être dans des constantes bien nommées. </t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -426,6 +472,9 @@
     <t>Le commit a un message pertinent et descriptif.</t>
   </si>
   <si>
+    <t xml:space="preserve">C'est un commit eirecte dans master et non pas une MR de votre branche de développement vers master. </t>
+  </si>
+  <si>
     <t>8.3 Branches mortes</t>
   </si>
   <si>
@@ -433,6 +482,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>branche: new-socket-service</t>
   </si>
   <si>
     <t>8.4 Gitlab</t>
@@ -441,6 +493,11 @@
     <t>Des Merge Requests sont utilisées pour fusionner vers la branche de production.
 Les Merge Requests sont approuvées par au moins un membre de l'équipe avant la fusion.
 Les Issues sont mis à jour tout au long du projet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noms des MR non représentatifs du but de la MR. 
+Vous avez des Mr qui ne passent pas le pipeline. 
+</t>
   </si>
   <si>
     <t>8.5 Fichiers</t>
@@ -586,27 +643,59 @@
     <t>3.1 Mode Temps Limité</t>
   </si>
   <si>
+    <t>RACHAD</t>
+  </si>
+  <si>
+    <t>Si Aucune Fiche disponible. Aucun message indique que c'est pas possible.
+Aucun coverage pour game.gateway</t>
+  </si>
+  <si>
     <t>3.2 Remise des données à leur état initial</t>
   </si>
   <si>
+    <t>Ca doit  tenir compte de la réinitialisation à la fin d'une partie (réinitilaiser juste avant de finir une partie par exemple)</t>
+  </si>
+  <si>
     <t>3.3 Vue de Configuration - constantes de jeu</t>
   </si>
   <si>
+    <t>OK
+ConstantDialogComponent manque énormément de coverage</t>
+  </si>
+  <si>
     <t>3.4 Indices de jeu</t>
   </si>
   <si>
+    <t>AHMED</t>
+  </si>
+  <si>
     <t>3.5 Historique des parties jouées</t>
   </si>
   <si>
+    <t>Bon travail
+Manque de couverture pour game history</t>
+  </si>
+  <si>
     <t>3.6 Meilleurs temps</t>
   </si>
   <si>
     <t>3.7 Messages de partie (global)</t>
   </si>
   <si>
+    <t>OK
+ChatGateway manque énormément de coverage</t>
+  </si>
+  <si>
     <t>3.8 Reprise vidéo de la partie</t>
   </si>
   <si>
+    <t>OK
+Votre coverage est ok</t>
+  </si>
+  <si>
+    <t>Plusieurs warning pour les tests côté client</t>
+  </si>
+  <si>
     <t>Erreur de build / déploiement erroné</t>
   </si>
   <si>
@@ -629,6 +718,10 @@
   </si>
   <si>
     <t xml:space="preserve">Présenter votre application, qu'est-ce qu'elle fait et quelles sont les parties qui communiquent ensemble. Ne mentionner pas Angular ni Javascript. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vous ne devez pas faire une publicité/marketing de votre site web dans l'introduction. Il suffit de mentionner que c'est un jeu de différence multijoueur et qui comportent un client (frontend) et un serveur avec une base de données (backend).
+- Vous devez introduire les prochaines sections. </t>
   </si>
   <si>
     <t>2 Vue des cas d'utilisation /5</t>
@@ -655,6 +748,19 @@
 Page 17 et 18 : mêmes commentaires que plus haut. </t>
   </si>
   <si>
+    <t>Diagramme principal : CU-6.0 n'est pas lié au client.
+p7 : diagramme trop vague qui semble plus une séquence que des CUs. Aucune valeur ajoutée au document.
+CU-1.0. Notation UML invalide : pas de limites au système.CU-1.1.2.1 invalide : pas de notion d'accepter/refuser le 2 joueur.
+figure 2 :CU-2.0 doit être lié à DB (imposé dans le projet)
+figure 3 : trop trivail avec aucune valeur ajoutée. CU-3.0 de la figure 3 devrait être ici pour que le diagramme soit complet.
+CU-1.0 : notation porte à confusion : vous avez déjà un diagramme CU-1.0 plus haut.  Les relations devraient être des "extend" sinon vous forcez le changement des 3 constantes à chaque fois.
+figure 4 : CU-3.0 et CU-4.0 trop vagues. CU-2.0 invalide : les indices sont prédéterminés dans le projet.
+figure 5 : CU-1.0 n'est pas un CU valide pour la reprise vidéo. CU-3.0 est trop vague : que veut dire "gérer" et en quoi c'est différent d"afficher" du CU-2.0 ?
+CU-3.0 : aurait dû être dans la figure 5. Nottin UML invalide. Les liens "include" devraient être des "extends".
+figure 6 : semble être un diagramme de séquence. CU-3.0 est un détail d'implémentation (à retirer). CU-4.0 devrait être lié à plus qu'un seul Client.
+figure 7 : CU-2.0 trop vague. "Gérer" veut dire quoi ici ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">- Soyez concis, vous avez pas à justifier vos décisions en équipe. 
 - C'est faux de mentionner les librairies Angular et SocketIO. Les protocoles de communications HTTP et WebSocket sont indépendant de la librairie utilisé.
 - Absence d'une justification correcte de l'utilisation de HTTP et WebSocket.
@@ -664,6 +770,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">- Même remarques que le sprint 2. 
+- "Changer l’attribut “isJoinable” d’une fiche de 
+ Jeu pour mode Classique multijoueur" --&gt; n'est pas une fonctionnalité
+-  "Messages Globaux" --&gt; Est trop vague comme fonctionnalité
+- "Gérer les fiches de Jeux pour le mode TL ( solo &amp; coop)" --&gt; N'est pas exigence ou fonctionnalité du système que vous devez décrire. C'est de la logique dans le serveur. </t>
+  </si>
+  <si>
     <t>3 Vue des processus /6</t>
   </si>
   <si>
@@ -673,6 +786,16 @@
     <t>Section incomplète : vous avez 1 seul diagramme et il est erroné : Il n'y a pas de reprise vidéo pour le temps limité. Si le message "update Sheets" veut dire la mise à jour des meilleurs temps, ceci est erroné puisqu'Il n'y a pas de meilleurs temps en mode temps limité
 Vous devez séparer la présentation en plusieurs diagrammes : selon ce diagramme, il faut configurer les constantes de jeu avant chaque partie solo (mais pas coop??), le mode solo se termine après avoir utilisé 1 indice en solo ou après avoir trouvé une différence en coop, et après la fin de la partie, il faut obligatoirement supprimer toutes les fiches.
 La séquence de jeu est mal représentée : il manque un [loop] pour représenter que la partie peut passer à travers plusieurs images et il manque une représentation de la gestion d'abandon et la poursuite en mode solo.</t>
+  </si>
+  <si>
+    <t>1.1 : Diagramme trop bas niveau. Un diagramme de séquence ne doit pas montrer les appels de fonctions exacts. Manque la condition de fin de votre loop. [invalid click] : 2 messages "undefined". Manque la notion de changement de paires d'images après une différence trouvée.  Pourquoi c'est ChatGateway qui décide de la fin de la partie ? Message "create" vague à la fin de jeu.. Il n'y a pas de notion de reprise vidéo en temps limité. Cette séquence démontre une incompréhension des fonctionnalités du Sprint 3.
+1.2 : Même commentaires que plus haut. Ici, vous avez la notion de "newGameSheet", mais pas en mode solo ?? Manque la séquence en cas d'abandon d'un des joueurs et la continuité en mode solo.
+3 : Manque le nom de l'acteur "Utilisateur" (ou autre). l'objet gameConstantsService n'est pas nommé comme les autres. Manque un meesage de retour après Response pour indiquer que les constantes sont affichées à l'utilisateur.resetConstants() ne se rend jamais à votre JSON : selon votre séquence, le fichier n'est pas modifier après une remise à l'était initial. "user confirms new constants values" porte à confusion pour indiquer que c'est une action de modification.
+4 : Mauvaise notation pour le nom de l'acteiur. 
+5 : "frame" devrait être un "loop" au début.Mauvaise notation d'alt : toutes les étapes dans la boîte alt sont quand même séquenciels. Il vous faudrait plusieurs "alt" ou "opt"
+6 : Que représente le loop ici ? On boucle sur des messages ? Sur des joueurs connectés ? La séquence porte à confusion. Logiquement "global message sent" devrait être avant la 'loop"
+7 : allHistory devrait venir avant "getAllHistory" dans la séquence. Ne pas mettre des codes HTTP dans un diagramme de séquence. Mauvaise notation alt : selon votre diagramme, on est obligé de supprimer tous les jeux après avoir consulté l'historique. Quel est le rapport entre l'historique des parties et la suppression des parties ? Vous avez combiné 2 diagrames en 1 seul sans lien logique.
+8 : mêmes commentaires que plus haut. Quelle est la différenc eentre "resetBestScores" et "resetScore" ??</t>
   </si>
   <si>
     <t xml:space="preserve">HTTP: 
@@ -688,6 +811,9 @@
 - Soyer concis dans la description de l'utilité de vos events
 - Vous devez avoir des noms d'évenements en camelCase seulement.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Même commentaires que le sprint 2. </t>
   </si>
   <si>
     <t>4 Vue logique /6</t>
@@ -710,6 +836,20 @@
 Page 35 : mêmes commentaires que la page 30. ChatGateway de cette page n'est pas présent à la page 34.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mauvaise notation UML : vous présentez des classes comme des paquetages. Ex  figure 1 : PlayArea,GamePage,ChatBox,etc. sont des classes et non des paquetages.
+Figure 1 : incomplet. Manque les interfaces autre que le jeu. Rien n'utilise GameHTTPCleint ? Vous avez seulement des liens vers SocketClient.
+p24 : pas de titre. Informations pas présente dans la figure 1.
+p25 : figure 2 devrait être présentée avant la description de ses sous-paquetages. Idem pour figure 3 à la page 29.
+Vous ne semblez pas comprendre le concept de paquetage :  ClientSelection ne peut pas être un paquetage qui englobe Interface et Service en même temps que les autres paquetages présentés.
+figure 4 : le lien avec MongoDB n'est pas clair : quel paquetage (classe ici) communique avec MongoDB ?? Mauvaise notation d'héritage : GameLogicln'hérite pas d'ImageToMatrix
+figure 8 : pourquoi on passe de 4 à 8 ?? Mêmes commentaires que plus haut pour l'héritage : icic ImageController n'hérite pas d'ImageCompareService
+figure 7 : classes flottantes sans liens entre-elles
+p34 : ImageController et SheetController contiennent "field:Type" et "method:Type" ?? Le diagramme est incomplet 
+p35 : mêmes commentaires que plus haut.
+Section incomplète et plusieurs commentaires de la correction initiale n'ont pas été tenus en compte.
+</t>
+  </si>
+  <si>
     <t>5 Vue de déploiement /2</t>
   </si>
   <si>
@@ -722,6 +862,13 @@
 Mongoose est une librairie et non un protocole de communication : la communication avec MongoDB se fait par TCP ou plus spécifiquement MongoDB Wire Protocol</t>
   </si>
   <si>
+    <t>Le serveur statique et le client (machine de l'utilisateur ) sont 2 concepts différents et devraient être séparés.
+Les fichiers statiques : il y a plusieurs fichiers.
+Mauvaise notation pour la BD. Manque l'OS pour vos noeuds.
+Nest est un cadriciel : il n'a pas à être presenté dans un tel diagramme. NEST API est trop vague.
+Vous avez moins d'information dans ce diagramme que la version initiale</t>
+  </si>
+  <si>
     <t>Forme /1</t>
   </si>
   <si>
@@ -730,9 +877,18 @@
 Section 4 : pas de numération ou de titres pour les diagrammes. Les diagrammes de paquetages et leurs diagrammes de classes ne sont pas cohérents dans la majorité des cas. </t>
   </si>
   <si>
+    <t>Notation UML à revoir dans les 4 sections.
+Problèmes de mise en page dans la section 3.
+Mauvaise utilisation de l'espace : les 2 premiers diagrammes de la section 3 sont trop petits et illisibles dû à une mauvaise résolution.
+Problème de numération : figure 1 est dans la section 2 et section 4??</t>
+  </si>
+  <si>
     <t>- Attention aux fautes d'écritures!
 - La table de matiére devrait seulement contenir les titres. Les cas d'utilisatiions doivent être numérotées. 
 - Enlever le paragraphe dupliquer dans le rapport.</t>
+  </si>
+  <si>
+    <t>- Même commentaires du sprint 2.</t>
   </si>
   <si>
     <t>FOND</t>
@@ -1837,7 +1993,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2378,9 +2534,6 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2529,6 +2682,30 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3081,8 +3258,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3155,11 +3332,11 @@
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0.71200000000000008</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.75055000000000005</v>
+        <v>0.76855000000000007</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3167,7 +3344,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>15.011000000000001</v>
+        <v>15.371000000000002</v>
       </c>
       <c r="H5" s="116">
         <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
@@ -3180,15 +3357,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
-        <v>0</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
+        <v>0.58640000000000003</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63356000000000001</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -3196,11 +3373,11 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.671200000000001</v>
       </c>
       <c r="H6" s="121">
         <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
-        <v>0</v>
+        <v>3.1156250000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3210,7 +3387,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -3218,7 +3395,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H7" s="125"/>
     </row>
@@ -3232,8 +3409,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3252,36 +3429,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3301,36 +3478,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="261" t="s">
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="262"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="241" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="250"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="256"/>
-      <c r="P6" s="256"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="258"/>
-      <c r="B7" s="245"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3366,27 +3543,31 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="254" t="s">
+      <c r="A8" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="254"/>
-      <c r="C8" s="247" t="s">
+      <c r="B8" s="261"/>
+      <c r="C8" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="248"/>
+      <c r="D8" s="255"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="247" t="s">
+      <c r="F8" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="248"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="247" t="s">
+      <c r="G8" s="255"/>
+      <c r="H8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="248"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="40"/>
@@ -3419,11 +3600,15 @@
       <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>0.8</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
-      <c r="K9" s="106"/>
+      <c r="K9" s="106" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -3433,10 +3618,10 @@
     </row>
     <row r="10" spans="1:17" ht="213">
       <c r="A10" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="100">
         <v>0.8</v>
@@ -3445,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="102">
         <v>0.7</v>
@@ -3454,13 +3639,17 @@
         <v>2</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="104"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="104">
+        <v>0.85</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
-      <c r="K10" s="106"/>
+      <c r="K10" s="106" t="s">
+        <v>29</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -3469,10 +3658,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="250"/>
+      <c r="A11" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="257"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>6.4</v>
@@ -3493,7 +3682,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>6.5000000000000009</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3508,29 +3697,31 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="254" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="254"/>
-      <c r="C12" s="247" t="s">
+      <c r="A12" s="261" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="261"/>
+      <c r="C12" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="248"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="248"/>
+      <c r="G12" s="255"/>
       <c r="H12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="248"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="43"/>
@@ -3538,12 +3729,12 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="45.75">
       <c r="A13" s="29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3552,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="89">
         <v>1</v>
@@ -3562,23 +3753,27 @@
         <v>3</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="92"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0.25</v>
+      </c>
       <c r="J13" s="93">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="94" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3587,7 +3782,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="86">
         <v>1</v>
@@ -3597,23 +3792,27 @@
         <v>2</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="60.75">
       <c r="A15" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3622,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F15" s="86">
         <v>0</v>
@@ -3632,23 +3831,27 @@
         <v>2</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="76"/>
+        <v>42</v>
+      </c>
+      <c r="I15" s="76">
+        <v>0</v>
+      </c>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="78"/>
+      <c r="K15" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="76.5">
       <c r="A16" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3657,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" s="86">
         <v>0</v>
@@ -3667,23 +3870,27 @@
         <v>4</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="76"/>
+        <v>46</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0</v>
+      </c>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="78" t="s">
+        <v>46</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="60.75">
       <c r="A17" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="83">
         <v>0.8</v>
@@ -3692,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F17" s="86">
         <v>0.6</v>
@@ -3702,22 +3909,26 @@
         <v>4</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>50</v>
+      </c>
+      <c r="I17" s="76">
+        <v>0.4</v>
+      </c>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="78" t="s">
+        <v>51</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="250"/>
+      <c r="A18" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="257"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>12.2</v>
@@ -3738,7 +3949,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3753,36 +3964,40 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="246" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="246"/>
-      <c r="C19" s="247" t="s">
+      <c r="A19" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="253"/>
+      <c r="C19" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="248"/>
+      <c r="D19" s="255"/>
       <c r="E19" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="248"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="247" t="s">
+      <c r="G19" s="255"/>
+      <c r="H19" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="248"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="255"/>
+      <c r="K19" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="91.5">
       <c r="A20" s="23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C20" s="83">
         <v>0.6</v>
@@ -3791,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" s="86">
         <v>0.5</v>
@@ -3800,22 +4015,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="76"/>
+        <v>56</v>
+      </c>
+      <c r="I20" s="76">
+        <v>0.33</v>
+      </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="78" t="s">
+        <v>57</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3824,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F21" s="86">
         <v>1</v>
@@ -3833,21 +4052,25 @@
         <v>3</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="251" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="252"/>
+      <c r="A22" s="258" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="259"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>4.8</v>
@@ -3868,7 +4091,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -3879,36 +4102,40 @@
       <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="213" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="247" t="s">
+      <c r="A23" s="212" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="212"/>
+      <c r="C23" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="248"/>
+      <c r="D23" s="255"/>
       <c r="E23" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="248"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="247" t="s">
+      <c r="G23" s="255"/>
+      <c r="H23" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="248"/>
-      <c r="K23" s="46"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3917,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F24" s="82">
         <v>1</v>
@@ -3926,22 +4153,26 @@
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="73"/>
+        <v>45</v>
+      </c>
+      <c r="I24" s="73">
+        <v>1</v>
+      </c>
       <c r="J24" s="74">
         <v>1</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C25" s="83">
         <v>0.6</v>
@@ -3950,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F25" s="86">
         <v>0.6</v>
@@ -3959,22 +4190,26 @@
         <v>2</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="76"/>
+        <v>67</v>
+      </c>
+      <c r="I25" s="76">
+        <v>0.6</v>
+      </c>
       <c r="J25" s="77">
         <v>2</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="78" t="s">
+        <v>67</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3983,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F26" s="86">
         <v>1</v>
@@ -3992,21 +4227,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
-      <c r="K26" s="78"/>
+      <c r="K26" s="78" t="s">
+        <v>63</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="253" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="252"/>
+      <c r="A27" s="260" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="259"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3.2</v>
@@ -4027,7 +4266,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -4038,36 +4277,38 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="246" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="246"/>
-      <c r="C28" s="247" t="s">
+      <c r="A28" s="253" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="253"/>
+      <c r="C28" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="248"/>
+      <c r="D28" s="255"/>
       <c r="E28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="247" t="s">
+      <c r="F28" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="248"/>
+      <c r="G28" s="255"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="247" t="s">
+      <c r="I28" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="248"/>
-      <c r="K28" s="46"/>
+      <c r="J28" s="255"/>
+      <c r="K28" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="198">
       <c r="A29" s="31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C29" s="79">
         <v>0.5</v>
@@ -4076,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F29" s="89">
         <v>0.6</v>
@@ -4086,23 +4327,27 @@
         <v>2</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I29" s="92">
+        <v>0.8</v>
+      </c>
       <c r="J29" s="93">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="94"/>
+      <c r="K29" s="94" t="s">
+        <v>75</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -4119,7 +4364,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="96"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="76">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
@@ -4130,10 +4377,10 @@
     </row>
     <row r="31" spans="1:17" ht="76.5">
       <c r="A31" s="24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -4150,22 +4397,26 @@
         <v>2</v>
       </c>
       <c r="H31" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" s="76"/>
+        <v>80</v>
+      </c>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K31" s="78"/>
+      <c r="K31" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="250"/>
+      <c r="A32" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="257"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>5</v>
@@ -4186,7 +4437,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -4197,34 +4448,38 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="254" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="254"/>
-      <c r="C33" s="247" t="s">
+      <c r="A33" s="261" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="261"/>
+      <c r="C33" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="248"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="247" t="s">
+      <c r="D33" s="255"/>
+      <c r="E33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="248"/>
+      <c r="G33" s="255"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
         <v>18</v>
       </c>
       <c r="J33" s="66"/>
-      <c r="K33" s="46"/>
+      <c r="K33" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -4240,7 +4495,9 @@
         <v>2</v>
       </c>
       <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
       <c r="J34" s="93">
         <v>2</v>
       </c>
@@ -4250,10 +4507,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -4269,7 +4526,9 @@
         <v>2</v>
       </c>
       <c r="H35" s="88"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="92">
+        <v>1</v>
+      </c>
       <c r="J35" s="77">
         <v>2</v>
       </c>
@@ -4279,10 +4538,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -4298,7 +4557,9 @@
         <v>3</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="92">
+        <v>1</v>
+      </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
@@ -4308,10 +4569,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -4327,7 +4588,9 @@
         <v>3</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="92">
+        <v>1</v>
+      </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
@@ -4336,10 +4599,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A38" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="250"/>
+      <c r="A38" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="257"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>10</v>
@@ -4358,53 +4621,57 @@
         <v>10</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
         <v>10</v>
       </c>
-      <c r="K38" s="65"/>
+      <c r="K38" s="65" t="s">
+        <v>63</v>
+      </c>
       <c r="L38" s="56"/>
       <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="247" t="s">
+      <c r="C39" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="248"/>
+      <c r="D39" s="255"/>
       <c r="E39" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="247" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="248"/>
+      <c r="G39" s="255"/>
       <c r="H39" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="247" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="248"/>
-      <c r="K39" s="46"/>
+      <c r="J39" s="255"/>
+      <c r="K39" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -4413,7 +4680,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="86">
         <v>1</v>
@@ -4423,23 +4690,27 @@
         <v>2</v>
       </c>
       <c r="H40" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I40" s="76">
+        <v>1</v>
+      </c>
       <c r="J40" s="77">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="K40" s="78"/>
+      <c r="K40" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="30.75">
       <c r="A41" s="23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C41" s="83">
         <v>0</v>
@@ -4448,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F41" s="86">
         <v>0.5</v>
@@ -4458,23 +4729,27 @@
         <v>2</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="76"/>
+        <v>98</v>
+      </c>
+      <c r="I41" s="76">
+        <v>1</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
         <v>2</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="30.75">
       <c r="A42" s="23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -4483,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F42" s="86">
         <v>0</v>
@@ -4493,22 +4768,26 @@
         <v>2</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="76"/>
+        <v>101</v>
+      </c>
+      <c r="I42" s="76">
+        <v>0</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K42" s="78"/>
+      <c r="K42" s="78" t="s">
+        <v>97</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="30.75">
       <c r="A43" s="23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C43" s="83">
         <v>0</v>
@@ -4517,7 +4796,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F43" s="86">
         <v>0.5</v>
@@ -4527,23 +4806,27 @@
         <v>4</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="76"/>
+        <v>105</v>
+      </c>
+      <c r="I43" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="78" t="s">
+        <v>106</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="30.75">
       <c r="A44" s="23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4552,33 +4835,37 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F44" s="86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="76"/>
+        <v>109</v>
+      </c>
+      <c r="I44" s="76">
+        <v>1</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K44" s="78"/>
+      <c r="K44" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="76.5">
+    <row r="45" spans="1:13" ht="321">
       <c r="A45" s="23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C45" s="83">
         <v>0.75</v>
@@ -4587,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F45" s="86">
         <v>0.5</v>
@@ -4597,23 +4884,27 @@
         <v>8</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="76"/>
+        <v>113</v>
+      </c>
+      <c r="I45" s="76">
+        <v>0</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>114</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="106.5">
       <c r="A46" s="23" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C46" s="83">
         <v>0</v>
@@ -4622,33 +4913,37 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F46" s="86">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" s="76"/>
+        <v>118</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>119</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C47" s="83">
         <v>0.4</v>
@@ -4657,7 +4952,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F47" s="86">
         <v>1</v>
@@ -4667,23 +4962,27 @@
         <v>6</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I47" s="76">
+        <v>0.75</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K47" s="78"/>
+      <c r="K47" s="78" t="s">
+        <v>123</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C48" s="83">
         <v>0</v>
@@ -4692,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F48" s="86">
         <v>1</v>
@@ -4702,22 +5001,26 @@
         <v>4</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="250"/>
+      <c r="A49" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="257"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>16.399999999999999</v>
@@ -4729,7 +5032,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>25</v>
+        <v>29.5</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4738,7 +5041,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -4753,38 +5056,40 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="254" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="254"/>
-      <c r="C50" s="247" t="s">
+      <c r="A50" s="261" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="261"/>
+      <c r="C50" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="248"/>
+      <c r="D50" s="255"/>
       <c r="E50" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="247" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="248"/>
+      <c r="G50" s="255"/>
       <c r="H50" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="I50" s="247" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="248"/>
-      <c r="K50" s="46"/>
+      <c r="J50" s="255"/>
+      <c r="K50" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4793,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" s="82">
         <v>1</v>
@@ -4802,22 +5107,26 @@
         <v>2</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="73"/>
+        <v>81</v>
+      </c>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
       <c r="J51" s="74">
         <v>2</v>
       </c>
-      <c r="K51" s="75"/>
+      <c r="K51" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="91.5">
       <c r="A52" s="23" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4826,7 +5135,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F52" s="86">
         <v>1</v>
@@ -4835,22 +5144,26 @@
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I52" s="76">
+        <v>0</v>
+      </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
-      <c r="K52" s="78"/>
+      <c r="K52" s="78" t="s">
+        <v>132</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4859,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F53" s="86">
         <v>1</v>
@@ -4868,22 +5181,26 @@
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I53" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J53" s="77">
         <v>1</v>
       </c>
-      <c r="K53" s="78"/>
+      <c r="K53" s="78" t="s">
+        <v>136</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="60.75">
+    <row r="54" spans="1:17" ht="121.5">
       <c r="A54" s="23" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C54" s="83">
         <v>0</v>
@@ -4892,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F54" s="86">
         <v>1</v>
@@ -4901,22 +5218,26 @@
         <v>4</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="76"/>
+        <v>81</v>
+      </c>
+      <c r="I54" s="76">
+        <v>0</v>
+      </c>
       <c r="J54" s="77">
         <v>4</v>
       </c>
-      <c r="K54" s="78"/>
+      <c r="K54" s="78" t="s">
+        <v>139</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C55" s="83">
         <v>0.5</v>
@@ -4925,7 +5246,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F55" s="86">
         <v>1</v>
@@ -4934,21 +5255,25 @@
         <v>2</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>2</v>
       </c>
-      <c r="K55" s="78"/>
+      <c r="K55" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="249" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="250"/>
+      <c r="A56" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="257"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>5</v>
@@ -4969,7 +5294,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -4980,27 +5305,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="277" t="s">
+      <c r="A57" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="278"/>
-      <c r="C57" s="278"/>
-      <c r="D57" s="278"/>
-      <c r="E57" s="278"/>
-      <c r="F57" s="278"/>
-      <c r="G57" s="278"/>
-      <c r="H57" s="278"/>
-      <c r="I57" s="278"/>
-      <c r="J57" s="278"/>
-      <c r="K57" s="279"/>
+      <c r="B57" s="285"/>
+      <c r="C57" s="285"/>
+      <c r="D57" s="285"/>
+      <c r="E57" s="285"/>
+      <c r="F57" s="285"/>
+      <c r="G57" s="285"/>
+      <c r="H57" s="285"/>
+      <c r="I57" s="285"/>
+      <c r="J57" s="285"/>
+      <c r="K57" s="286"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="264" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="265"/>
+      <c r="A58" s="271" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="272"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>63</v>
@@ -5012,16 +5337,16 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>71.2</v>
+        <v>75.7</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
-      <c r="I58" s="212">
+      <c r="I58" s="211">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>58.64</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -5032,28 +5357,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="266" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="267"/>
-      <c r="C59" s="268">
+      <c r="A59" s="273" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="274"/>
+      <c r="C59" s="275">
         <f>C58/D58</f>
         <v>0.63</v>
       </c>
-      <c r="D59" s="269"/>
-      <c r="E59" s="270"/>
-      <c r="F59" s="271">
+      <c r="D59" s="276"/>
+      <c r="E59" s="277"/>
+      <c r="F59" s="278">
         <f>F58/G58</f>
-        <v>0.71200000000000008</v>
-      </c>
-      <c r="G59" s="272"/>
-      <c r="H59" s="273"/>
-      <c r="I59" s="274">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="G59" s="279"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="281">
         <f>I58/J58</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="275"/>
-      <c r="K59" s="276"/>
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="J59" s="282"/>
+      <c r="K59" s="283"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -5112,7 +5437,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 F34:F37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 I34:I37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -5131,8 +5456,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5147,15 +5472,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -5168,7 +5493,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5179,31 +5504,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="284" t="s">
+      <c r="A6" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="293"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>18</v>
@@ -5214,7 +5539,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -5230,15 +5555,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B9" s="137">
         <v>0.9</v>
@@ -5257,12 +5582,12 @@
         <v>19</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5281,12 +5606,12 @@
         <v>19</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B11" s="137">
         <v>0.5</v>
@@ -5302,15 +5627,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B12" s="134">
         <v>0.6</v>
@@ -5326,15 +5651,15 @@
         <v>9</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="76.5">
       <c r="A13" s="133" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B13" s="134">
         <v>0.7</v>
@@ -5352,13 +5677,13 @@
       <c r="F13" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="218" t="s">
-        <v>143</v>
+      <c r="G13" s="217" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="121.5">
       <c r="A14" s="136" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B14" s="137">
         <v>0.5</v>
@@ -5374,18 +5699,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="217" t="s">
-        <v>145</v>
+        <v>32</v>
+      </c>
+      <c r="G14" s="216" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="287"/>
-      <c r="C15" s="287"/>
+        <v>161</v>
+      </c>
+      <c r="B15" s="294"/>
+      <c r="C15" s="294"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -5399,7 +5724,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>15</v>
@@ -5409,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -5418,7 +5743,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -5436,7 +5761,7 @@
     </row>
     <row r="18" spans="1:7" ht="30.75">
       <c r="A18" s="151" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B18" s="152">
         <v>0.25</v>
@@ -5450,36 +5775,36 @@
         <v>-3.75</v>
       </c>
       <c r="F18" s="152"/>
-      <c r="G18" s="216" t="s">
-        <v>150</v>
+      <c r="G18" s="215" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="288" t="s">
+      <c r="A19" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="289"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="290"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="297"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="154" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B20" s="155" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="155" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D20" s="155" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="155" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F20" s="155" t="s">
         <v>18</v>
@@ -5490,7 +5815,7 @@
     </row>
     <row r="21" spans="1:7" ht="76.5">
       <c r="A21" s="157" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B21" s="158">
         <v>0.75</v>
@@ -5506,13 +5831,13 @@
         <v>17.55</v>
       </c>
       <c r="F21" s="158"/>
-      <c r="G21" s="219" t="s">
-        <v>152</v>
+      <c r="G21" s="218" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="160" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B22" s="161">
         <v>0.8</v>
@@ -5531,12 +5856,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="162" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="157" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B23" s="158">
         <v>1</v>
@@ -5552,15 +5877,15 @@
         <v>19.5</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G23" s="159" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="160" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B24" s="161">
         <v>1</v>
@@ -5579,12 +5904,12 @@
         <v>19</v>
       </c>
       <c r="G24" s="162" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="157" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B25" s="158">
         <v>0.75</v>
@@ -5600,15 +5925,15 @@
         <v>6</v>
       </c>
       <c r="F25" s="158" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G25" s="159" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.75">
       <c r="A26" s="160" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B26" s="161">
         <v>0.75</v>
@@ -5626,35 +5951,35 @@
       <c r="F26" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="238" t="s">
-        <v>162</v>
+      <c r="G26" s="237" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.75">
-      <c r="A27" s="214" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="214">
-        <v>1</v>
-      </c>
-      <c r="C27" s="214">
-        <v>1</v>
-      </c>
-      <c r="D27" s="214">
+      <c r="A27" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="213">
+        <v>1</v>
+      </c>
+      <c r="C27" s="213">
+        <v>1</v>
+      </c>
+      <c r="D27" s="213">
         <v>8</v>
       </c>
       <c r="E27" s="161">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214" t="s">
-        <v>164</v>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="163" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B28" s="164"/>
       <c r="C28" s="164"/>
@@ -5671,7 +5996,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="167" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B29" s="168" t="s">
         <v>15</v>
@@ -5681,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="169" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F29" s="169"/>
       <c r="G29" s="170" t="s">
@@ -5690,7 +6015,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="171" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B30" s="172">
         <v>0</v>
@@ -5708,7 +6033,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="175" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B31" s="176">
         <v>0</v>
@@ -5726,7 +6051,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="179" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B32" s="180">
         <v>0</v>
@@ -5743,31 +6068,31 @@
       <c r="G32" s="182"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="281" t="s">
+      <c r="A33" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="283"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="289"/>
+      <c r="G33" s="290"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="183" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B34" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="184" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D34" s="184" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="184" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F34" s="184" t="s">
         <v>18</v>
@@ -5776,255 +6101,289 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="45.75">
       <c r="A35" s="186" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B35" s="187">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C35" s="187">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D35" s="187">
         <v>24</v>
       </c>
       <c r="E35" s="187">
         <f t="shared" ref="E35:E42" si="2">B35*C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="189" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="190">
-        <v>0</v>
-      </c>
-      <c r="C36" s="190">
-        <v>0</v>
-      </c>
-      <c r="D36" s="190">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F35" s="187" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="238" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30.75">
+      <c r="A36" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="189">
+        <v>0.95</v>
+      </c>
+      <c r="C36" s="189">
+        <v>1</v>
+      </c>
+      <c r="D36" s="189">
         <v>6</v>
       </c>
-      <c r="E36" s="190">
+      <c r="E36" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="190"/>
-      <c r="G36" s="191"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F36" s="189" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="245" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30.75">
       <c r="A37" s="186" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B37" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="187">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D37" s="187">
         <v>6</v>
       </c>
       <c r="E37" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="187"/>
-      <c r="G37" s="188"/>
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="238" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="189" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="190">
-        <v>0</v>
-      </c>
-      <c r="C38" s="190">
-        <v>0</v>
-      </c>
-      <c r="D38" s="190">
+      <c r="A38" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="189">
+        <v>1</v>
+      </c>
+      <c r="C38" s="189">
+        <v>1</v>
+      </c>
+      <c r="D38" s="189">
         <v>12</v>
       </c>
-      <c r="E38" s="190">
+      <c r="E38" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="190"/>
-      <c r="G38" s="191"/>
-    </row>
-    <row r="39" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F38" s="189" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="190" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30.75">
       <c r="A39" s="186" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B39" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D39" s="187">
         <v>12</v>
       </c>
       <c r="E39" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="187"/>
-      <c r="G39" s="188"/>
+        <v>9</v>
+      </c>
+      <c r="F39" s="189" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="238" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="189" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="190">
-        <v>0</v>
-      </c>
-      <c r="C40" s="190">
-        <v>0</v>
-      </c>
-      <c r="D40" s="190">
+      <c r="A40" s="188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="189">
+        <v>1</v>
+      </c>
+      <c r="C40" s="189">
+        <v>1</v>
+      </c>
+      <c r="D40" s="189">
         <v>14</v>
       </c>
-      <c r="E40" s="190">
+      <c r="E40" s="189">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="190"/>
-      <c r="G40" s="191"/>
-    </row>
-    <row r="41" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="F40" s="189" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" s="190" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30.75">
       <c r="A41" s="186" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B41" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="187">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D41" s="187">
         <v>6</v>
       </c>
       <c r="E41" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="187"/>
-      <c r="G41" s="188"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="215" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="215">
-        <v>0</v>
-      </c>
-      <c r="C42" s="215">
-        <v>0</v>
-      </c>
-      <c r="D42" s="215">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="238" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30.75">
+      <c r="A42" s="214" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="214">
+        <v>1</v>
+      </c>
+      <c r="C42" s="214">
+        <v>1</v>
+      </c>
+      <c r="D42" s="214">
         <v>20</v>
       </c>
       <c r="E42" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="215"/>
-      <c r="G42" s="215"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="239" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="192" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="193"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193">
+      <c r="A43" s="191" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="192"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="192">
         <f>SUM(D35:D42)</f>
         <v>100</v>
       </c>
-      <c r="E43" s="194">
+      <c r="E43" s="193">
         <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F43" s="193"/>
+      <c r="G43" s="194"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="197" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="197"/>
+      <c r="G44" s="198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="199" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="200">
+        <v>0.2</v>
+      </c>
+      <c r="C45" s="200"/>
+      <c r="D45" s="201">
+        <v>-10</v>
+      </c>
+      <c r="E45" s="200">
+        <f>B45*D45</f>
+        <v>-2</v>
+      </c>
+      <c r="F45" s="200"/>
+      <c r="G45" s="202" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="204">
         <v>0</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="195"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="196" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="197" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="198" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="198"/>
-      <c r="G44" s="199" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="200" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="201">
-        <v>0</v>
-      </c>
-      <c r="C45" s="201"/>
-      <c r="D45" s="202">
-        <v>-10</v>
-      </c>
-      <c r="E45" s="201">
-        <f>B45*D45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="201"/>
-      <c r="G45" s="203"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="204" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="205">
-        <v>0</v>
-      </c>
-      <c r="C46" s="205"/>
-      <c r="D46" s="206">
+      <c r="C46" s="204"/>
+      <c r="D46" s="205">
         <v>-15</v>
       </c>
-      <c r="E46" s="205">
+      <c r="E46" s="204">
         <f>B46*D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="205"/>
-      <c r="G46" s="207"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="206"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="209">
+      <c r="A47" s="207" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="208">
         <v>0</v>
       </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="210">
+      <c r="C47" s="208"/>
+      <c r="D47" s="209">
         <v>-5</v>
       </c>
-      <c r="E47" s="209">
+      <c r="E47" s="208">
         <f>B47*D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="209"/>
-      <c r="G47" s="211"/>
+      <c r="F47" s="208"/>
+      <c r="G47" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6056,260 +6415,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96390A7-15EB-4DD9-8ABE-151660FB9A15}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.140625" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="291" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="291"/>
-      <c r="E1" s="291" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="291"/>
+      <c r="A1" s="298" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="298"/>
+      <c r="E1" s="298" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="298"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220" t="s">
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="219" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="221" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="222"/>
-      <c r="E3" s="221" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="222"/>
+      <c r="A3" s="220" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="221"/>
+      <c r="E3" s="220" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="221"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="223" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="224">
-        <v>1</v>
-      </c>
-      <c r="C4" s="224"/>
-      <c r="E4" s="223" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="224">
+      <c r="A4" s="222" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="223">
+        <v>1</v>
+      </c>
+      <c r="C4" s="223">
+        <v>1</v>
+      </c>
+      <c r="E4" s="222" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="223">
         <v>0.75</v>
       </c>
-      <c r="G4" s="224"/>
+      <c r="G4" s="223">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="221"/>
-      <c r="B5" s="225" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="221" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="225" t="s">
-        <v>182</v>
+      <c r="A5" s="220"/>
+      <c r="B5" s="224" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="220" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="240" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="241" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="223" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="224">
+      <c r="A6" s="222" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="223">
         <v>2.5</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="E6" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="224">
+      <c r="C6" s="223">
+        <v>3</v>
+      </c>
+      <c r="E6" s="222" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="223">
         <v>4</v>
       </c>
-      <c r="G6" s="224"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="221"/>
+      <c r="G6" s="223">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.6">
+      <c r="A7" s="220"/>
       <c r="B7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222" t="s">
-        <v>186</v>
+        <v>210</v>
+      </c>
+      <c r="C7" s="227" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="220"/>
+      <c r="F7" s="221" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="242" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="223" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="224">
+      <c r="A8" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="223">
         <v>2</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="E8" s="223" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="224">
+      <c r="C8" s="223">
+        <v>3</v>
+      </c>
+      <c r="E8" s="222" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="223">
         <v>8</v>
       </c>
-      <c r="G8" s="224"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="221"/>
-      <c r="B9" s="226" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="226" t="s">
-        <v>190</v>
+      <c r="G8" s="223">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6">
+      <c r="A9" s="220"/>
+      <c r="B9" s="225" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="227" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="226"/>
+      <c r="F9" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="243" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="223" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="224">
+      <c r="A10" s="222" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="223">
         <v>4</v>
       </c>
-      <c r="C10" s="224"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="221"/>
-      <c r="B11" s="228" t="s">
-        <v>192</v>
+      <c r="C10" s="223">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.6">
+      <c r="A11" s="220"/>
+      <c r="B11" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="227" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="223" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="224">
+      <c r="A12" s="222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="223">
         <v>1.5</v>
       </c>
-      <c r="C12" s="224"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="227"/>
-      <c r="B13" s="235" t="s">
-        <v>194</v>
+      <c r="C12" s="223">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="167.25">
+      <c r="A13" s="226"/>
+      <c r="B13" s="234" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="227" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="229" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="236">
+      <c r="A14" s="228" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="235">
         <v>0.75</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="E14" s="229" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="230">
+      <c r="C14" s="223">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="228" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="229">
         <v>0.75</v>
       </c>
-      <c r="G14" s="224"/>
-    </row>
-    <row r="15" spans="1:7" ht="64.5">
-      <c r="A15" s="221"/>
-      <c r="B15" s="237" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="226" t="s">
-        <v>197</v>
+      <c r="G14" s="223">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="113.25">
+      <c r="A15" s="220"/>
+      <c r="B15" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="220"/>
+      <c r="F15" s="225" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="244" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="231" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="232">
+      <c r="A16" s="230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="231">
         <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
         <v>11</v>
       </c>
-      <c r="C16" s="232">
+      <c r="C16" s="231">
         <f>SUM(C4,C6,C8,C10,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="231" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="232">
+        <v>12.75</v>
+      </c>
+      <c r="E16" s="230" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="231">
         <f>SUM(F4,F6,F8)</f>
         <v>12.75</v>
       </c>
-      <c r="G16" s="232">
+      <c r="G16" s="231">
         <f>SUM(G4,G6,G8)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="231" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="232">
+      <c r="A17" s="230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="231">
         <f t="shared" ref="B17" si="1">B14</f>
         <v>0.75</v>
       </c>
-      <c r="C17" s="232">
+      <c r="C17" s="231">
         <f>C14</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="231" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="232">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="230" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="231">
         <f>F14</f>
         <v>0.75</v>
       </c>
-      <c r="G17" s="232">
+      <c r="G17" s="231">
         <f>G14</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="233" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="234">
+      <c r="A18" s="232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="233">
         <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
         <v>0.57000000000000006</v>
       </c>
-      <c r="C18" s="234">
+      <c r="C18" s="233">
         <f>C16/20*0.9+C17*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="233" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="234">
+        <v>0.65375000000000005</v>
+      </c>
+      <c r="E18" s="232" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="233">
         <f>F16/20*0.9+F17*0.1</f>
         <v>0.64874999999999994</v>
       </c>
-      <c r="G18" s="234">
+      <c r="G18" s="233">
         <f>G16/20*0.9+G17*0.1</f>
-        <v>0</v>
+        <v>0.59250000000000003</v>
       </c>
     </row>
   </sheetData>
